--- a/data/trans_dic/P5_1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de patio en su vivienda</t>
+          <t>Población que disfruta de patio en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>47,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>48,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>51,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>51,97%</t>
+          <t>48,77%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,63; 58,22</t>
+          <t>34,0; 58,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,08; 64,76</t>
+          <t>32,78; 55,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>42,42; 52,54</t>
+          <t>39,31; 57,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,02; 56,18</t>
+          <t>44,25; 59,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,65; 53,12</t>
+          <t>39,88; 54,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,51; 57,3</t>
+          <t>41,84; 55,41</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,2%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>52,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>44,59%</t>
+          <t>46,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>45,56%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>48,39%</t>
+          <t>49,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,44%</t>
+          <t>49,97%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47,43; 56,27</t>
+          <t>45,17; 58,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,25; 58,02</t>
+          <t>45,47; 58,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,79; 47,88</t>
+          <t>40,61; 52,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,59; 49,91</t>
+          <t>42,2; 52,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>45,56; 51,21</t>
+          <t>44,47; 53,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,02; 52,69</t>
+          <t>46,06; 53,92</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>42,92%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>44,91%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>44,88%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,62%</t>
+          <t>39,81%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>41,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,98%</t>
+          <t>42,71%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>40,2; 50,3</t>
+          <t>35,41; 49,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,47; 51,16</t>
+          <t>38,44; 51,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>40,01; 49,39</t>
+          <t>33,6; 46,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,35; 46,1</t>
+          <t>35,31; 46,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>41,54; 48,19</t>
+          <t>37,03; 46,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,91; 46,68</t>
+          <t>38,63; 47,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>51,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>50,89%</t>
+          <t>51,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>45,15%</t>
+          <t>45,76%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,17%</t>
+          <t>43,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>47,47%</t>
+          <t>48,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>47,51%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>46,85; 52,9</t>
+          <t>47,24; 55,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,27; 54,34</t>
+          <t>45,56; 55,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,98; 47,87</t>
+          <t>42,56; 48,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>42,4; 48,22</t>
+          <t>38,98; 48,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,57; 49,54</t>
+          <t>46,01; 51,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,81; 50,33</t>
+          <t>44,14; 50,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>49,93%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>49,6%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>45,22%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>45,12%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>47,52%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>47,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46,42; 52,82</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>46,07; 52,89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>42,77; 47,83</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>42,28; 47,79</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>45,66; 49,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>45,13; 49,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de patio en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>107428</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>153260</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>126234</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>217832</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>233662</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>371092</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>77017; 131874</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>111200; 186916</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>102882; 149521</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>186608; 252171</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>194667; 264230</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>318392; 421627</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>339258</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>489775</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>332857</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>475982</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>672115</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>965757</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>294002; 382820</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>424061; 544085</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>290420; 374371</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>421949; 524859</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>607435; 730373</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>890211; 1042100</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>195595</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>321349</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>211656</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>312824</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>407251</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>634173</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>161365; 225881</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>275107; 369744</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>178657; 245863</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>271598; 356679</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>365632; 454828</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>573597; 707236</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>825.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>465.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1078937</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>744123</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>956284</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>615141</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2035221</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1359263</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>998752; 1163543</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>663935; 813392</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>889354; 1019877</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>547122; 676992</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1934313; 2151511</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1262819; 1454233</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>668.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>730.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>609.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1398.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1186.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1721218</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1708506</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1627032</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1621778</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>3348249</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3330285</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1600452; 1821093</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1586989; 1821811</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1538972; 1721095</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1519691; 1717751</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3216816; 3483396</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3176532; 3473027</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>